--- a/DateBase/orders/Nha Thu_2025-10-25.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -815,6 +815,9 @@
       <c r="C46" t="str">
         <v>591_洋牡丹黑_undefined_undefined_1bunch</v>
       </c>
+      <c r="F46" t="str">
+        <v>10</v>
+      </c>
     </row>
     <row r="47">
       <c r="C47" t="str">
@@ -825,25 +828,200 @@
       <c r="C48" t="str">
         <v>585_洋牡丹红_undefined_undefined_1bunch</v>
       </c>
+      <c r="F48" t="str">
+        <v>10</v>
+      </c>
     </row>
     <row r="49">
       <c r="C49" t="str">
         <v>587_洋牡丹橙_undefined_undefined_1bunch</v>
       </c>
+      <c r="F49" t="str">
+        <v>5</v>
+      </c>
     </row>
     <row r="50">
       <c r="C50" t="str">
         <v>588_洋牡丹黄_undefined_undefined_1bunch</v>
       </c>
+      <c r="F50" t="str">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="C51" t="str">
         <v>676_洋牡丹玫红_undefined_undefined_1bunch</v>
       </c>
+      <c r="F51" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>589_洋牡丹香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>6</v>
+      </c>
+      <c r="C53" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>317_尤加利叶细叶_Eucalyptus Parvifolia_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>818_八卦草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>624_多丁白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>626_多丁黄言_undefined_undefined_undefinedundefined</v>
+      </c>
+      <c r="F58" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>818_八卦草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>44_拉丝粉_Spider Pink_Gerbera L._20stems</v>
+      </c>
+      <c r="F60" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>546_绿宝石_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F61" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F62" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>71_霜雪mini_Snowy_Gerbera L._20stems</v>
+      </c>
+      <c r="F63" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
+      </c>
+      <c r="F64" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F65" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>631_吸色康乃馨宝蓝_tinted blue_undefined_20stems</v>
+      </c>
+      <c r="F66" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>7</v>
+      </c>
+      <c r="C67" t="str">
+        <v>630_吸色康乃馨天蓝_tinted tiffany blue_undefined_20stems</v>
+      </c>
+      <c r="F67" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F68" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>229_黄蝴蝶_Yellow Butterfly_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F69" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F70" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -901,7 +1079,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0138962010388585510151515102020101010101082020201010101055155330103123020000000</v>
+        <v>01389620103885855101515151020201010101010820202010101010551553301031230201001055552015105101051010171051051010550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-25.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1018,10 +1018,179 @@
       <c r="A71" t="str">
         <v>8</v>
       </c>
+      <c r="C71" t="str">
+        <v>805_大丽花奥黛丽_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F71" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v/>
+      </c>
+      <c r="C72" t="str">
+        <v>656_大丽花 梅根_undefined_undefined_5stems</v>
+      </c>
+      <c r="F72" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>648_洋牡丹河内_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F73" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>640_红辣椒_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F74" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>631_吸色康乃馨宝蓝_tinted blue_undefined_20stems</v>
+      </c>
+      <c r="F75" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>1</v>
+      </c>
+      <c r="C76" t="str">
+        <v>208_紫霞仙子 _Nightingale_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F76" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F77" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="str">
+        <v>165_杏仁酒_Amaretto_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F78" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F79" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F80" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+      <c r="F81" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="str">
+        <v>45_拉丝艳粉_Spider pink+_Gerbera L._20stems</v>
+      </c>
+      <c r="F82" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>2</v>
+      </c>
+      <c r="C83" t="str">
+        <v>641_绿枫叶_maple leaf_undefined_1bunch</v>
+      </c>
+      <c r="F83" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="str">
+        <v>319_尤加利叶带果_Eucalyptus leaves with small pods_undefined_1bunch</v>
+      </c>
+      <c r="F84" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="str">
+        <v>716_山葡萄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F85" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="str">
+        <v>326_红继木_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F86" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="str">
+        <v>440_火棘果_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F87" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="str">
+        <v>436_木百合_leucadendron _undefined_1bunch</v>
+      </c>
+      <c r="F88" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F89" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="str">
+        <v>114_绣球孔雀_Hydrangea Peacoke_Hydrangea L._1stem</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="str">
+        <v>114_绣球孔雀_Hydrangea Peacoke_Hydrangea L._1stem</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L91"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1079,7 +1248,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01389620103885855101515151020201010101010820202010101010551553301031230201001055552015105101051010171051051010550</v>
+        <v>01389620103885855101515151020201010101010820202010101010551553301031230201001055552015105101051010171051051010555101055121181010105101010105102000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-25.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-25.xlsx
@@ -1182,6 +1182,9 @@
       <c r="C90" t="str">
         <v>114_绣球孔雀_Hydrangea Peacoke_Hydrangea L._1stem</v>
       </c>
+      <c r="F90" t="str">
+        <v>20</v>
+      </c>
     </row>
     <row r="91">
       <c r="C91" t="str">
@@ -1248,7 +1251,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01389620103885855101515151020201010101010820202010101010551553301031230201001055552015105101051010171051051010555101055121181010105101010105102000</v>
+        <v>013896201038858551015151510202010101010108202020101010105515533010312302010010555520151051010510101710510510105551010551211810101051010101051020200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-25.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L142"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1190,10 +1190,440 @@
       <c r="C91" t="str">
         <v>114_绣球孔雀_Hydrangea Peacoke_Hydrangea L._1stem</v>
       </c>
+      <c r="F91" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="str">
+        <v>317_尤加利叶细叶_Eucalyptus Parvifolia_undefined_1bunch</v>
+      </c>
+      <c r="F92" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" t="str">
+        <v>794_小菊罗西香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F93" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>3</v>
+      </c>
+      <c r="C94" t="str">
+        <v>603_康乃馨粉钻_darkpink_undefined_20stems</v>
+      </c>
+      <c r="F94" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="C95" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F95" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="C96" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F96" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F97" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="C98" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F98" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" t="str">
+        <v>224_折射_Reflex_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F99" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="C100" t="str">
+        <v>457_茴香花_lace flower yellow_undefined_1bunch</v>
+      </c>
+      <c r="F100" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" t="str">
+        <v>45_拉丝艳粉_Spider pink+_Gerbera L._20stems</v>
+      </c>
+      <c r="F101" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="C102" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F102" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="C103" t="str">
+        <v>317_尤加利叶细叶_Eucalyptus Parvifolia_undefined_1bunch</v>
+      </c>
+      <c r="F103" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>4</v>
+      </c>
+      <c r="C104" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F104" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="C105" t="str">
+        <v>421_松虫草黑色_scabiosa black_undefined_1bunch</v>
+      </c>
+      <c r="F105" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="C106" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F106" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="C107" t="str">
+        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
+      </c>
+      <c r="F107" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="C108" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F108" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="C109" t="str">
+        <v>526_大刺秦_Eryngium_undefined_1bunch</v>
+      </c>
+      <c r="F109" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="C110" t="str">
+        <v>691_银莲紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F110" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="C111" t="str">
+        <v>717_银莲玫红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F111" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="C112" t="str">
+        <v>492_细米花_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F112" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>5</v>
+      </c>
+      <c r="C113" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F113" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="C114" t="str">
+        <v>656_大丽花 梅根_undefined_undefined_5stems</v>
+      </c>
+      <c r="F114" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="C115" t="str">
+        <v>647_海棠果红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F115" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>6</v>
+      </c>
+      <c r="C116" t="str">
+        <v>522_山归来绿_Smilax china_undefined_1bunch</v>
+      </c>
+      <c r="F116" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="C117" t="str">
+        <v>688_山归来橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F117" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="C118" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F118" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="C119" t="str">
+        <v>776_亚布流星_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F119" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="C120" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F120" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" xml:space="preserve">
+      <c r="C121" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F121" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="C122" t="str">
+        <v>456_蕾丝白色_lace flower white_undefined_1bunch</v>
+      </c>
+      <c r="F122" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="C123" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F123" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="C124" t="str">
+        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F124" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="C125" t="str">
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F125" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="C126" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F126" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>7</v>
+      </c>
+      <c r="C127" t="str">
+        <v>354_桔叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F127" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="C128" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F128" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="C129" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F129" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="C130" t="str">
+        <v>495_大飞燕深粉色_delphinium pink_undefined_1bunch</v>
+      </c>
+      <c r="F130" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="C131" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F131" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="C132" t="str">
+        <v>402_大飞燕深紫色_delphinium purple_undefined_1bunch</v>
+      </c>
+      <c r="F132" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="C133" t="str">
+        <v>496_大飞燕深蓝色_delphinium dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F133" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="C134" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F134" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="C135" t="str">
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
+      </c>
+      <c r="F135" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="C136" t="str">
+        <v>574_迷你菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F136" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="C137" t="str">
+        <v>575_迷你菊深粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F137" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>8</v>
+      </c>
+      <c r="C138" t="str">
+        <v>143_黑巴克_Black Baccara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F138" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="C139" t="str">
+        <v>143_黑巴克_Black Baccara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F139" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="C140" t="str">
+        <v>237_酷皮_Kupi_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F140" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="C141" t="str">
+        <v>237_酷皮_Kupi_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F141" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="C142" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F142" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L91"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L142"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1251,7 +1681,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>013896201038858551015151510202010101010108202020101010105515533010312302010010555520151051010510101710510510105551010551211810101051010101051020200</v>
+        <v>0138962010388585510151515102020101010101082020201010101055155330103123020100105555201510510105101017105105101055510105512118101010510101010510202020105105101512610510510101071553510101051015155510101510106101010101055102010510105610</v>
       </c>
     </row>
   </sheetData>
